--- a/data/processed/4th/MASTER_combined_4th_DIFFS.xlsx
+++ b/data/processed/4th/MASTER_combined_4th_DIFFS.xlsx
@@ -11881,7 +11881,7 @@
         <v>34</v>
       </c>
       <c r="U119" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="V119"/>
       <c r="W119"/>
@@ -11957,7 +11957,7 @@
         <v>34</v>
       </c>
       <c r="U120" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="V120" t="s">
         <v>46</v>
@@ -12037,7 +12037,7 @@
         <v>34</v>
       </c>
       <c r="U121" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="V121" t="s">
         <v>32</v>
@@ -12119,7 +12119,7 @@
         <v>154</v>
       </c>
       <c r="U122" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="V122"/>
       <c r="W122"/>
@@ -12191,7 +12191,7 @@
         <v>34</v>
       </c>
       <c r="U123" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="V123" t="s">
         <v>46</v>
@@ -12269,7 +12269,7 @@
         <v>34</v>
       </c>
       <c r="U124" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="V124" t="s">
         <v>88</v>
@@ -12355,7 +12355,7 @@
         <v>155</v>
       </c>
       <c r="U125" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="V125" t="s">
         <v>46</v>
@@ -13087,7 +13087,7 @@
         <v>34</v>
       </c>
       <c r="U134" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="V134" t="s">
         <v>32</v>
@@ -13325,7 +13325,7 @@
         <v>161</v>
       </c>
       <c r="U137" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="V137" t="s">
         <v>32</v>
@@ -13411,7 +13411,7 @@
         <v>162</v>
       </c>
       <c r="U138" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="V138"/>
       <c r="W138"/>
@@ -13569,7 +13569,7 @@
         <v>34</v>
       </c>
       <c r="U140" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="V140" t="s">
         <v>32</v>
